--- a/Src/Data/Tables/ShopItemDefine.xlsx
+++ b/Src/Data/Tables/ShopItemDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>商店ID</t>
   </si>
@@ -66,6 +66,51 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>小型治疗药水</t>
+  </si>
+  <si>
+    <t>小型治疗药水X10</t>
+  </si>
+  <si>
+    <t>小型法力药水</t>
+  </si>
+  <si>
+    <t>小型法力药水X10</t>
+  </si>
+  <si>
+    <t>面包</t>
+  </si>
+  <si>
+    <t>面包X10</t>
+  </si>
+  <si>
+    <t>海鲜汤</t>
+  </si>
+  <si>
+    <t>海鲜汤X10</t>
+  </si>
+  <si>
+    <t>铁剑</t>
+  </si>
+  <si>
+    <t>铁盾</t>
+  </si>
+  <si>
+    <t>桃木法杖</t>
+  </si>
+  <si>
+    <t>牛皮法典</t>
+  </si>
+  <si>
+    <t>木弓</t>
+  </si>
+  <si>
+    <t>皮箭袋</t>
   </si>
 </sst>
 </file>
@@ -783,7 +828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -800,6 +845,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="61">
@@ -865,7 +925,7 @@
     <cellStyle name="好 2" xfId="59"/>
     <cellStyle name="适中 2" xfId="60"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -931,6 +991,14 @@
       </fill>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <sz val="9"/>
+      </font>
+      <alignment horizontal="center"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -942,15 +1010,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:F11" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F11" etc:filterBottomFollowUsedRange="0"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:G32" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:G32" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="3" name="Key2" dataDxfId="1"/>
     <tableColumn id="5" name="ItemID" dataDxfId="2"/>
     <tableColumn id="2" name="Count" dataDxfId="3"/>
     <tableColumn id="4" name="Prise" dataDxfId="4"/>
     <tableColumn id="98" name="Status" dataDxfId="5"/>
+    <tableColumn id="6" name="Remark" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1243,10 +1312,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1314,9 +1383,11 @@
       <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:6">
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:7">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1330,98 +1401,113 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="13.2" spans="2:6">
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:7">
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="13.2" spans="2:6">
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="2:7">
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="13.2" spans="2:6">
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:7">
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="13.2" spans="1:6">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="13.2" spans="2:7">
       <c r="B8" s="1">
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="13.2" spans="2:6">
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:7">
       <c r="B9" s="1">
         <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1430,35 +1516,453 @@
         <v>7</v>
       </c>
       <c r="C10" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="2:6">
+      <c r="G10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" s="2">
         <v>8</v>
       </c>
       <c r="C11" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D11" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1">
+        <v>100</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="7">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1001</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>300</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="7"/>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1002</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
         <v>200</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="7"/>
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2001</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>300</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="7"/>
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2002</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
+        <v>200</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="7"/>
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+      <c r="C16" s="8">
+        <v>3001</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7">
+        <v>300</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="7"/>
+      <c r="B17" s="1">
+        <v>14</v>
+      </c>
+      <c r="C17" s="8">
+        <v>3002</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
+        <v>200</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="7"/>
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1003</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7">
+        <v>400</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="7"/>
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1004</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7">
+        <v>500</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="7"/>
+      <c r="B20" s="1">
+        <v>17</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1005</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7">
+        <v>600</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="7"/>
+      <c r="B21" s="1">
+        <v>18</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1006</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
+        <v>700</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="7"/>
+      <c r="B22" s="1">
+        <v>19</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1007</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7">
+        <v>800</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="7"/>
+      <c r="B23" s="1">
+        <v>20</v>
+      </c>
+      <c r="C23" s="8">
+        <v>2003</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7">
+        <v>400</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="7"/>
+      <c r="B24" s="1">
+        <v>21</v>
+      </c>
+      <c r="C24" s="8">
+        <v>2004</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7">
+        <v>500</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="7"/>
+      <c r="B25" s="1">
+        <v>22</v>
+      </c>
+      <c r="C25" s="8">
+        <v>2005</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
+        <v>600</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7"/>
+      <c r="B26" s="1">
+        <v>23</v>
+      </c>
+      <c r="C26" s="8">
+        <v>2006</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7">
+        <v>700</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7"/>
+      <c r="B27" s="2">
+        <v>24</v>
+      </c>
+      <c r="C27" s="8">
+        <v>2007</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7">
+        <v>800</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="7"/>
+      <c r="B28" s="1">
+        <v>25</v>
+      </c>
+      <c r="C28" s="8">
+        <v>3003</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7">
+        <v>400</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="7"/>
+      <c r="B29" s="1">
+        <v>26</v>
+      </c>
+      <c r="C29" s="8">
+        <v>3004</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7">
+        <v>500</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="7"/>
+      <c r="B30" s="1">
+        <v>27</v>
+      </c>
+      <c r="C30" s="8">
+        <v>3005</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7">
+        <v>600</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="7"/>
+      <c r="B31" s="1">
+        <v>28</v>
+      </c>
+      <c r="C31" s="8">
+        <v>3006</v>
+      </c>
+      <c r="D31" s="9">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7">
+        <v>700</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="7"/>
+      <c r="B32" s="1">
+        <v>29</v>
+      </c>
+      <c r="C32" s="8">
+        <v>3007</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7">
+        <v>800</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Src/Data/Tables/ShopItemDefine.xlsx
+++ b/Src/Data/Tables/ShopItemDefine.xlsx
@@ -123,7 +123,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -144,6 +144,17 @@
       <b/>
       <sz val="9"/>
       <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -653,28 +664,19 @@
   </borders>
   <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -683,152 +685,161 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -846,20 +857,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="61">
@@ -1010,8 +1027,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:G32" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:G32" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:G35" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:G35" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="3" name="Key2" dataDxfId="1"/>
@@ -1312,10 +1329,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1410,7 +1427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="2:7">
+    <row r="5" s="1" customFormat="1" ht="13.2" spans="2:7">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1430,7 +1447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="2:7">
+    <row r="6" s="1" customFormat="1" ht="13.2" spans="2:7">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -1450,7 +1467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="2:7">
+    <row r="7" s="1" customFormat="1" ht="13.2" spans="2:7">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -1490,7 +1507,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="2:7">
+    <row r="9" s="1" customFormat="1" ht="13.2" spans="2:7">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -1552,417 +1569,456 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="7">
+      <c r="A12" s="2">
         <v>2</v>
       </c>
       <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="1">
         <v>1001</v>
       </c>
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
         <v>300</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="7"/>
+    <row r="13" spans="2:7">
       <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="1">
         <v>1002</v>
       </c>
-      <c r="D13" s="9">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
         <v>200</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="7"/>
+    <row r="14" spans="2:7">
       <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="1">
         <v>2001</v>
       </c>
-      <c r="D14" s="9">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
         <v>300</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="7"/>
+    <row r="15" spans="2:7">
       <c r="B15" s="1">
         <v>12</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="1">
         <v>2002</v>
       </c>
-      <c r="D15" s="9">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
         <v>200</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="7"/>
+    <row r="16" spans="2:7">
       <c r="B16" s="1">
         <v>13</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="1">
         <v>3001</v>
       </c>
-      <c r="D16" s="9">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
         <v>300</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="7"/>
+    <row r="17" spans="2:7">
       <c r="B17" s="1">
         <v>14</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="1">
         <v>3002</v>
       </c>
-      <c r="D17" s="9">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
         <v>200</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="7"/>
+    <row r="18" spans="2:7">
       <c r="B18" s="1">
         <v>15</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="1">
         <v>1003</v>
       </c>
-      <c r="D18" s="9">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
         <v>400</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="7"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" s="2">
         <v>16</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="1">
         <v>1004</v>
       </c>
-      <c r="D19" s="9">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7">
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
         <v>500</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="7"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" s="1">
         <v>17</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="1">
         <v>1005</v>
       </c>
-      <c r="D20" s="9">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
         <v>600</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
       </c>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="7"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="1">
         <v>18</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="1">
         <v>1006</v>
       </c>
-      <c r="D21" s="9">
-        <v>1</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
         <v>700</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="7"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22" s="1">
         <v>19</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="1">
         <v>1007</v>
       </c>
-      <c r="D22" s="9">
-        <v>1</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
         <v>800</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
       </c>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="7"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="1">
         <v>2003</v>
       </c>
-      <c r="D23" s="9">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
         <v>400</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
       </c>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="7"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24" s="1">
         <v>21</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="1">
         <v>2004</v>
       </c>
-      <c r="D24" s="9">
-        <v>1</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
         <v>500</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
       </c>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="7"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" s="1">
         <v>22</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="1">
         <v>2005</v>
       </c>
-      <c r="D25" s="9">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
         <v>600</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="7"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26" s="1">
         <v>23</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="1">
         <v>2006</v>
       </c>
-      <c r="D26" s="9">
-        <v>1</v>
-      </c>
-      <c r="E26" s="7">
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
         <v>700</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
       </c>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="7"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="2:7">
       <c r="B27" s="2">
         <v>24</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="1">
         <v>2007</v>
       </c>
-      <c r="D27" s="9">
-        <v>1</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
         <v>800</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
       </c>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="7"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="2:7">
       <c r="B28" s="1">
         <v>25</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="1">
         <v>3003</v>
       </c>
-      <c r="D28" s="9">
-        <v>1</v>
-      </c>
-      <c r="E28" s="7">
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
         <v>400</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
       </c>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="7"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="2:7">
       <c r="B29" s="1">
         <v>26</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="1">
         <v>3004</v>
       </c>
-      <c r="D29" s="9">
-        <v>1</v>
-      </c>
-      <c r="E29" s="7">
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
         <v>500</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
       </c>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="7"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="2:7">
       <c r="B30" s="1">
         <v>27</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="1">
         <v>3005</v>
       </c>
-      <c r="D30" s="9">
-        <v>1</v>
-      </c>
-      <c r="E30" s="7">
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
         <v>600</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
       </c>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="7"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="2:7">
       <c r="B31" s="1">
         <v>28</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="1">
         <v>3006</v>
       </c>
-      <c r="D31" s="9">
-        <v>1</v>
-      </c>
-      <c r="E31" s="7">
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
         <v>700</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
       </c>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="7"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="2:7">
       <c r="B32" s="1">
         <v>29</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="1">
         <v>3007</v>
       </c>
-      <c r="D32" s="9">
-        <v>1</v>
-      </c>
-      <c r="E32" s="7">
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
         <v>800</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
       </c>
-      <c r="G32" s="11"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="9">
+        <v>3</v>
+      </c>
+      <c r="B33" s="10">
+        <v>1</v>
+      </c>
+      <c r="C33" s="11">
+        <v>8001</v>
+      </c>
+      <c r="D33" s="10">
+        <v>1</v>
+      </c>
+      <c r="E33" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="12">
+        <v>1</v>
+      </c>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10">
+        <v>2</v>
+      </c>
+      <c r="C34" s="11">
+        <v>8002</v>
+      </c>
+      <c r="D34" s="10">
+        <v>1</v>
+      </c>
+      <c r="E34" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F34" s="12">
+        <v>1</v>
+      </c>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10">
+        <v>3</v>
+      </c>
+      <c r="C35" s="11">
+        <v>8003</v>
+      </c>
+      <c r="D35" s="10">
+        <v>1</v>
+      </c>
+      <c r="E35" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F35" s="12">
+        <v>1</v>
+      </c>
+      <c r="G35" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
